--- a/Sienet/Sienet_master.xlsx
+++ b/Sienet/Sienet_master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20880" windowHeight="8415"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="20880" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,8 +696,8 @@
       <c r="C9" s="8">
         <v>65</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="1"/>
     </row>
@@ -711,8 +711,8 @@
       <c r="C10" s="8">
         <v>-70</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
     </row>
